--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Infinite Number Line 1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Infinite Number Line 1.xlsx_with_dialog_acts.xlsx
@@ -1091,12 +1091,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2187,12 +2187,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2267,12 +2267,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2415,12 +2415,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3111,12 +3111,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3635,12 +3635,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3751,12 +3751,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4207,12 +4207,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
